--- a/urban_design/cea_excel/architecture.xlsx
+++ b/urban_design/cea_excel/architecture.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -600,6 +600,171 @@
   </si>
   <si>
     <t>B178</t>
+  </si>
+  <si>
+    <t>B179</t>
+  </si>
+  <si>
+    <t>B180</t>
+  </si>
+  <si>
+    <t>B181</t>
+  </si>
+  <si>
+    <t>B182</t>
+  </si>
+  <si>
+    <t>B183</t>
+  </si>
+  <si>
+    <t>B184</t>
+  </si>
+  <si>
+    <t>B185</t>
+  </si>
+  <si>
+    <t>B186</t>
+  </si>
+  <si>
+    <t>B187</t>
+  </si>
+  <si>
+    <t>B188</t>
+  </si>
+  <si>
+    <t>B189</t>
+  </si>
+  <si>
+    <t>B190</t>
+  </si>
+  <si>
+    <t>B191</t>
+  </si>
+  <si>
+    <t>B192</t>
+  </si>
+  <si>
+    <t>B193</t>
+  </si>
+  <si>
+    <t>B194</t>
+  </si>
+  <si>
+    <t>B195</t>
+  </si>
+  <si>
+    <t>B196</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>B198</t>
+  </si>
+  <si>
+    <t>B199</t>
+  </si>
+  <si>
+    <t>B200</t>
+  </si>
+  <si>
+    <t>B201</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>B204</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>B208</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B211</t>
+  </si>
+  <si>
+    <t>B212</t>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>B214</t>
+  </si>
+  <si>
+    <t>B215</t>
+  </si>
+  <si>
+    <t>B216</t>
+  </si>
+  <si>
+    <t>B217</t>
+  </si>
+  <si>
+    <t>B218</t>
+  </si>
+  <si>
+    <t>B219</t>
+  </si>
+  <si>
+    <t>B220</t>
+  </si>
+  <si>
+    <t>B221</t>
+  </si>
+  <si>
+    <t>B222</t>
+  </si>
+  <si>
+    <t>B223</t>
+  </si>
+  <si>
+    <t>B224</t>
+  </si>
+  <si>
+    <t>B225</t>
+  </si>
+  <si>
+    <t>B226</t>
+  </si>
+  <si>
+    <t>B227</t>
+  </si>
+  <si>
+    <t>B228</t>
+  </si>
+  <si>
+    <t>B229</t>
+  </si>
+  <si>
+    <t>B230</t>
+  </si>
+  <si>
+    <t>B231</t>
+  </si>
+  <si>
+    <t>B232</t>
+  </si>
+  <si>
+    <t>B233</t>
   </si>
 </sst>
 </file>
@@ -917,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7188,6 +7353,1931 @@
         <v>0.8</v>
       </c>
     </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>192</v>
+      </c>
+      <c r="B180">
+        <v>0.8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>14</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" t="s">
+        <v>14</v>
+      </c>
+      <c r="J180">
+        <v>0.8</v>
+      </c>
+      <c r="K180">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>193</v>
+      </c>
+      <c r="B181">
+        <v>0.8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>14</v>
+      </c>
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+      <c r="J181">
+        <v>0.8</v>
+      </c>
+      <c r="K181">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>194</v>
+      </c>
+      <c r="B182">
+        <v>0.8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182">
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>13</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" t="s">
+        <v>14</v>
+      </c>
+      <c r="J182">
+        <v>0.8</v>
+      </c>
+      <c r="K182">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>195</v>
+      </c>
+      <c r="B183">
+        <v>0.8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>14</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" t="s">
+        <v>13</v>
+      </c>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" t="s">
+        <v>14</v>
+      </c>
+      <c r="J183">
+        <v>0.8</v>
+      </c>
+      <c r="K183">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>196</v>
+      </c>
+      <c r="B184">
+        <v>0.8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>14</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+      <c r="J184">
+        <v>0.8</v>
+      </c>
+      <c r="K184">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185">
+        <v>0.8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s">
+        <v>13</v>
+      </c>
+      <c r="G185" t="s">
+        <v>13</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>14</v>
+      </c>
+      <c r="J185">
+        <v>0.8</v>
+      </c>
+      <c r="K185">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>198</v>
+      </c>
+      <c r="B186">
+        <v>0.8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <v>14</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186" t="s">
+        <v>13</v>
+      </c>
+      <c r="G186" t="s">
+        <v>13</v>
+      </c>
+      <c r="H186" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186" t="s">
+        <v>14</v>
+      </c>
+      <c r="J186">
+        <v>0.8</v>
+      </c>
+      <c r="K186">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>199</v>
+      </c>
+      <c r="B187">
+        <v>0.8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187">
+        <v>14</v>
+      </c>
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" t="s">
+        <v>13</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187">
+        <v>0.8</v>
+      </c>
+      <c r="K187">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>200</v>
+      </c>
+      <c r="B188">
+        <v>0.8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>14</v>
+      </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" t="s">
+        <v>13</v>
+      </c>
+      <c r="H188" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188" t="s">
+        <v>14</v>
+      </c>
+      <c r="J188">
+        <v>0.8</v>
+      </c>
+      <c r="K188">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189">
+        <v>0.8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>14</v>
+      </c>
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
+        <v>13</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>14</v>
+      </c>
+      <c r="J189">
+        <v>0.8</v>
+      </c>
+      <c r="K189">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190">
+        <v>0.8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>14</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+      <c r="J190">
+        <v>0.8</v>
+      </c>
+      <c r="K190">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191">
+        <v>0.8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191">
+        <v>14</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>13</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>14</v>
+      </c>
+      <c r="J191">
+        <v>0.8</v>
+      </c>
+      <c r="K191">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>204</v>
+      </c>
+      <c r="B192">
+        <v>0.8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>14</v>
+      </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>14</v>
+      </c>
+      <c r="J192">
+        <v>0.8</v>
+      </c>
+      <c r="K192">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193">
+        <v>0.8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>14</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193">
+        <v>0.8</v>
+      </c>
+      <c r="K193">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>206</v>
+      </c>
+      <c r="B194">
+        <v>0.8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>14</v>
+      </c>
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
+      <c r="H194" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>14</v>
+      </c>
+      <c r="J194">
+        <v>0.8</v>
+      </c>
+      <c r="K194">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195">
+        <v>0.8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>14</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
+      <c r="H195" t="s">
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195">
+        <v>0.8</v>
+      </c>
+      <c r="K195">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196">
+        <v>0.8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>12</v>
+      </c>
+      <c r="D196">
+        <v>14</v>
+      </c>
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>13</v>
+      </c>
+      <c r="G196" t="s">
+        <v>13</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196">
+        <v>0.8</v>
+      </c>
+      <c r="K196">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197">
+        <v>0.8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>14</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s">
+        <v>13</v>
+      </c>
+      <c r="G197" t="s">
+        <v>13</v>
+      </c>
+      <c r="H197" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197" t="s">
+        <v>14</v>
+      </c>
+      <c r="J197">
+        <v>0.8</v>
+      </c>
+      <c r="K197">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>210</v>
+      </c>
+      <c r="B198">
+        <v>0.8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>14</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" t="s">
+        <v>13</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198">
+        <v>0.8</v>
+      </c>
+      <c r="K198">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>211</v>
+      </c>
+      <c r="B199">
+        <v>0.8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>12</v>
+      </c>
+      <c r="D199">
+        <v>14</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199">
+        <v>0.8</v>
+      </c>
+      <c r="K199">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>212</v>
+      </c>
+      <c r="B200">
+        <v>0.8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <v>14</v>
+      </c>
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>13</v>
+      </c>
+      <c r="G200" t="s">
+        <v>13</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200">
+        <v>0.8</v>
+      </c>
+      <c r="K200">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>213</v>
+      </c>
+      <c r="B201">
+        <v>0.8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <v>14</v>
+      </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" t="s">
+        <v>13</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201">
+        <v>0.8</v>
+      </c>
+      <c r="K201">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>214</v>
+      </c>
+      <c r="B202">
+        <v>0.8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>14</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202">
+        <v>0.8</v>
+      </c>
+      <c r="K202">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>215</v>
+      </c>
+      <c r="B203">
+        <v>0.8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>14</v>
+      </c>
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203">
+        <v>0.8</v>
+      </c>
+      <c r="K203">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>216</v>
+      </c>
+      <c r="B204">
+        <v>0.8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>14</v>
+      </c>
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204" t="s">
+        <v>13</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204">
+        <v>0.8</v>
+      </c>
+      <c r="K204">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>217</v>
+      </c>
+      <c r="B205">
+        <v>0.8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>12</v>
+      </c>
+      <c r="D205">
+        <v>14</v>
+      </c>
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205" t="s">
+        <v>13</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205">
+        <v>0.8</v>
+      </c>
+      <c r="K205">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>218</v>
+      </c>
+      <c r="B206">
+        <v>0.8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>14</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206" t="s">
+        <v>13</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>14</v>
+      </c>
+      <c r="J206">
+        <v>0.8</v>
+      </c>
+      <c r="K206">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>219</v>
+      </c>
+      <c r="B207">
+        <v>0.8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>12</v>
+      </c>
+      <c r="D207">
+        <v>14</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207" t="s">
+        <v>13</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207">
+        <v>0.8</v>
+      </c>
+      <c r="K207">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208">
+        <v>0.8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>14</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208">
+        <v>0.8</v>
+      </c>
+      <c r="K208">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>221</v>
+      </c>
+      <c r="B209">
+        <v>0.8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209">
+        <v>14</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
+      </c>
+      <c r="I209" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209">
+        <v>0.8</v>
+      </c>
+      <c r="K209">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>222</v>
+      </c>
+      <c r="B210">
+        <v>0.8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210">
+        <v>14</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210" t="s">
+        <v>13</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210">
+        <v>0.8</v>
+      </c>
+      <c r="K210">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>223</v>
+      </c>
+      <c r="B211">
+        <v>0.8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>12</v>
+      </c>
+      <c r="D211">
+        <v>14</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s">
+        <v>13</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211">
+        <v>0.8</v>
+      </c>
+      <c r="K211">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>224</v>
+      </c>
+      <c r="B212">
+        <v>0.8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212">
+        <v>14</v>
+      </c>
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212" t="s">
+        <v>13</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212">
+        <v>0.8</v>
+      </c>
+      <c r="K212">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213">
+        <v>0.8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>14</v>
+      </c>
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213" t="s">
+        <v>13</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213">
+        <v>0.8</v>
+      </c>
+      <c r="K213">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214">
+        <v>0.8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214">
+        <v>14</v>
+      </c>
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214" t="s">
+        <v>13</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214">
+        <v>0.8</v>
+      </c>
+      <c r="K214">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>227</v>
+      </c>
+      <c r="B215">
+        <v>0.8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215">
+        <v>14</v>
+      </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215" t="s">
+        <v>13</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
+      <c r="H215" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215">
+        <v>0.8</v>
+      </c>
+      <c r="K215">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216">
+        <v>0.8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>12</v>
+      </c>
+      <c r="D216">
+        <v>14</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216">
+        <v>0.8</v>
+      </c>
+      <c r="K216">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>229</v>
+      </c>
+      <c r="B217">
+        <v>0.8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>14</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217" t="s">
+        <v>13</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+      <c r="J217">
+        <v>0.8</v>
+      </c>
+      <c r="K217">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>230</v>
+      </c>
+      <c r="B218">
+        <v>0.8</v>
+      </c>
+      <c r="C218" t="s">
+        <v>12</v>
+      </c>
+      <c r="D218">
+        <v>14</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s">
+        <v>13</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218">
+        <v>0.8</v>
+      </c>
+      <c r="K218">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>231</v>
+      </c>
+      <c r="B219">
+        <v>0.8</v>
+      </c>
+      <c r="C219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D219">
+        <v>14</v>
+      </c>
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219">
+        <v>0.8</v>
+      </c>
+      <c r="K219">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>232</v>
+      </c>
+      <c r="B220">
+        <v>0.8</v>
+      </c>
+      <c r="C220" t="s">
+        <v>12</v>
+      </c>
+      <c r="D220">
+        <v>14</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220">
+        <v>0.8</v>
+      </c>
+      <c r="K220">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>233</v>
+      </c>
+      <c r="B221">
+        <v>0.8</v>
+      </c>
+      <c r="C221" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>14</v>
+      </c>
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s">
+        <v>13</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221">
+        <v>0.8</v>
+      </c>
+      <c r="K221">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>234</v>
+      </c>
+      <c r="B222">
+        <v>0.8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222">
+        <v>14</v>
+      </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222" t="s">
+        <v>13</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222">
+        <v>0.8</v>
+      </c>
+      <c r="K222">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>235</v>
+      </c>
+      <c r="B223">
+        <v>0.8</v>
+      </c>
+      <c r="C223" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223">
+        <v>14</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223" t="s">
+        <v>13</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223">
+        <v>0.8</v>
+      </c>
+      <c r="K223">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>236</v>
+      </c>
+      <c r="B224">
+        <v>0.8</v>
+      </c>
+      <c r="C224" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224">
+        <v>14</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224" t="s">
+        <v>13</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224">
+        <v>0.8</v>
+      </c>
+      <c r="K224">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>237</v>
+      </c>
+      <c r="B225">
+        <v>0.8</v>
+      </c>
+      <c r="C225" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>14</v>
+      </c>
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225" t="s">
+        <v>13</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225">
+        <v>0.8</v>
+      </c>
+      <c r="K225">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>238</v>
+      </c>
+      <c r="B226">
+        <v>0.8</v>
+      </c>
+      <c r="C226" t="s">
+        <v>12</v>
+      </c>
+      <c r="D226">
+        <v>14</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226" t="s">
+        <v>13</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226">
+        <v>0.8</v>
+      </c>
+      <c r="K226">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>239</v>
+      </c>
+      <c r="B227">
+        <v>0.8</v>
+      </c>
+      <c r="C227" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>14</v>
+      </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227" t="s">
+        <v>13</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227">
+        <v>0.8</v>
+      </c>
+      <c r="K227">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>240</v>
+      </c>
+      <c r="B228">
+        <v>0.8</v>
+      </c>
+      <c r="C228" t="s">
+        <v>12</v>
+      </c>
+      <c r="D228">
+        <v>14</v>
+      </c>
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228">
+        <v>0.8</v>
+      </c>
+      <c r="K228">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>241</v>
+      </c>
+      <c r="B229">
+        <v>0.8</v>
+      </c>
+      <c r="C229" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>14</v>
+      </c>
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s">
+        <v>13</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229">
+        <v>0.8</v>
+      </c>
+      <c r="K229">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230">
+        <v>0.8</v>
+      </c>
+      <c r="C230" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230">
+        <v>14</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230" t="s">
+        <v>13</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230">
+        <v>0.8</v>
+      </c>
+      <c r="K230">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>243</v>
+      </c>
+      <c r="B231">
+        <v>0.8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>14</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" t="s">
+        <v>13</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231">
+        <v>0.8</v>
+      </c>
+      <c r="K231">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>244</v>
+      </c>
+      <c r="B232">
+        <v>0.8</v>
+      </c>
+      <c r="C232" t="s">
+        <v>12</v>
+      </c>
+      <c r="D232">
+        <v>14</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232" t="s">
+        <v>13</v>
+      </c>
+      <c r="G232" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232">
+        <v>0.8</v>
+      </c>
+      <c r="K232">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>245</v>
+      </c>
+      <c r="B233">
+        <v>0.8</v>
+      </c>
+      <c r="C233" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233">
+        <v>14</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>14</v>
+      </c>
+      <c r="J233">
+        <v>0.8</v>
+      </c>
+      <c r="K233">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>246</v>
+      </c>
+      <c r="B234">
+        <v>0.8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>14</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234">
+        <v>0.8</v>
+      </c>
+      <c r="K234">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
